--- a/examples/templates/biorecipes_dynamic_basic.xlsx
+++ b/examples/templates/biorecipes_dynamic_basic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaoxiangzhou/Downloads/BioRECIPES/examples/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0DD8F3-6EFE-4F4B-B2E2-DFA37F7CA1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EE2AF9-B41E-C840-A27E-1727797969B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Element Name</t>
   </si>
@@ -46,6 +46,24 @@
   </si>
   <si>
     <t>Element Database</t>
+  </si>
+  <si>
+    <t>Positive Connection Type</t>
+  </si>
+  <si>
+    <t>Positive Mechanism</t>
+  </si>
+  <si>
+    <t>Positive Site</t>
+  </si>
+  <si>
+    <t>Negative Connection Type</t>
+  </si>
+  <si>
+    <t>Negative Mechanism</t>
+  </si>
+  <si>
+    <t>Negative Site</t>
   </si>
 </sst>
 </file>
@@ -436,18 +454,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="K1" sqref="K1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="24.33203125" style="1"/>
+    <col min="6" max="12" width="24.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -466,8 +484,26 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
